--- a/改訂版　企画一覧表.xlsx
+++ b/改訂版　企画一覧表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasatomo03\Desktop\hiryusai_homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A1AE51-B3BB-44F5-BF91-800D4EAC98D1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9514" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 完成版" sheetId="1" r:id="rId1"/>
@@ -3901,7 +3902,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4490,18 +4491,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4511,12 +4524,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4524,12 +4531,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4841,51 +4842,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.35546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.65"/>
   <cols>
     <col min="1" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="17.35546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="15.35546875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="9" width="22.5" customWidth="1"/>
-    <col min="10" max="10" width="34.375" customWidth="1"/>
-    <col min="11" max="11" width="35.125" customWidth="1"/>
-    <col min="12" max="12" width="79.125" customWidth="1"/>
-    <col min="13" max="13" width="43.875" customWidth="1"/>
+    <col min="10" max="10" width="34.35546875" customWidth="1"/>
+    <col min="11" max="11" width="35.140625" customWidth="1"/>
+    <col min="12" max="12" width="79.140625" customWidth="1"/>
+    <col min="13" max="13" width="43.85546875" customWidth="1"/>
     <col min="14" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="77" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="77"/>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" t="s">
         <v>444</v>
       </c>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="91" t="s">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -4898,23 +4899,23 @@
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="90" t="s">
+      <c r="G4" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="90" t="s">
+      <c r="H4" s="79"/>
+      <c r="I4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="90" t="s">
+      <c r="J4" s="79"/>
+      <c r="K4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="81"/>
+      <c r="L4" s="79"/>
       <c r="M4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -4947,7 +4948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -4968,10 +4969,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="I6" s="86" t="s">
+      <c r="I6" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="81"/>
+      <c r="J6" s="79"/>
       <c r="K6" s="8" t="s">
         <v>21</v>
       </c>
@@ -4980,7 +4981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
@@ -5013,7 +5014,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A8" s="53" t="s">
         <v>30</v>
       </c>
@@ -5044,7 +5045,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A9" s="51" t="s">
         <v>452</v>
       </c>
@@ -5077,7 +5078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -5107,7 +5108,7 @@
       </c>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A11" s="4" t="s">
         <v>48</v>
       </c>
@@ -5140,7 +5141,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A12" s="4" t="s">
         <v>53</v>
       </c>
@@ -5170,7 +5171,7 @@
       </c>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
@@ -5203,7 +5204,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A14" s="4" t="s">
         <v>64</v>
       </c>
@@ -5236,7 +5237,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
@@ -5269,7 +5270,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A16" s="4" t="s">
         <v>76</v>
       </c>
@@ -5302,7 +5303,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A17" s="4" t="s">
         <v>82</v>
       </c>
@@ -5335,7 +5336,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A18" s="4" t="s">
         <v>88</v>
       </c>
@@ -5368,7 +5369,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A19" s="4" t="s">
         <v>96</v>
       </c>
@@ -5401,7 +5402,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A20" s="4" t="s">
         <v>100</v>
       </c>
@@ -5432,7 +5433,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A21" s="4" t="s">
         <v>106</v>
       </c>
@@ -5465,7 +5466,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A22" s="4" t="s">
         <v>111</v>
       </c>
@@ -5498,7 +5499,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A23" s="4" t="s">
         <v>117</v>
       </c>
@@ -5529,7 +5530,7 @@
       <c r="L23" s="9"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A24" s="4" t="s">
         <v>123</v>
       </c>
@@ -5562,7 +5563,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A25" s="4" t="s">
         <v>131</v>
       </c>
@@ -5593,7 +5594,7 @@
       <c r="L25" s="9"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A26" s="4" t="s">
         <v>138</v>
       </c>
@@ -5624,7 +5625,7 @@
       <c r="L26" s="9"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A27" s="4" t="s">
         <v>144</v>
       </c>
@@ -5657,7 +5658,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A28" s="75"/>
       <c r="B28" s="75"/>
       <c r="C28" s="72"/>
@@ -5672,16 +5673,16 @@
       <c r="L28" s="72"/>
       <c r="M28" s="72"/>
     </row>
-    <row r="29" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A29" s="76"/>
       <c r="B29" s="76"/>
     </row>
-    <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A30" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A31" s="17" t="s">
         <v>153</v>
       </c>
@@ -5703,7 +5704,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A32" s="4" t="s">
         <v>155</v>
       </c>
@@ -5723,7 +5724,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A33" s="4" t="s">
         <v>159</v>
       </c>
@@ -5743,7 +5744,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A34" s="4" t="s">
         <v>162</v>
       </c>
@@ -5763,7 +5764,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A35" s="19" t="s">
         <v>165</v>
       </c>
@@ -5783,7 +5784,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A36" s="4" t="s">
         <v>168</v>
       </c>
@@ -5803,7 +5804,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A37" s="75"/>
       <c r="B37" s="75"/>
       <c r="C37" s="72"/>
@@ -5813,13 +5814,13 @@
       <c r="G37" s="72"/>
       <c r="H37" s="72"/>
     </row>
-    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A39" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A40" s="17" t="s">
         <v>0</v>
       </c>
@@ -5844,7 +5845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A41" s="4" t="s">
         <v>172</v>
       </c>
@@ -5869,7 +5870,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A42" s="4" t="s">
         <v>177</v>
       </c>
@@ -5894,7 +5895,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A43" s="4" t="s">
         <v>181</v>
       </c>
@@ -5919,7 +5920,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A44" s="4" t="s">
         <v>185</v>
       </c>
@@ -5944,7 +5945,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A45" s="4" t="s">
         <v>189</v>
       </c>
@@ -5969,7 +5970,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A46" s="4" t="s">
         <v>193</v>
       </c>
@@ -5994,7 +5995,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A47" s="4" t="s">
         <v>196</v>
       </c>
@@ -6019,7 +6020,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A48" s="4" t="s">
         <v>199</v>
       </c>
@@ -6044,7 +6045,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A49" s="4" t="s">
         <v>201</v>
       </c>
@@ -6069,7 +6070,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A50" s="19" t="s">
         <v>204</v>
       </c>
@@ -6094,7 +6095,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A51" s="4" t="s">
         <v>208</v>
       </c>
@@ -6119,7 +6120,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A52" s="19" t="s">
         <v>213</v>
       </c>
@@ -6144,7 +6145,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A53" s="4" t="s">
         <v>216</v>
       </c>
@@ -6167,7 +6168,7 @@
       <c r="J53" s="26"/>
       <c r="K53" s="26"/>
     </row>
-    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A54" s="4" t="s">
         <v>219</v>
       </c>
@@ -6192,7 +6193,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A55" s="75"/>
       <c r="B55" s="75"/>
       <c r="C55" s="72"/>
@@ -6205,20 +6206,20 @@
       <c r="J55" s="72"/>
       <c r="K55" s="72"/>
     </row>
-    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A56" s="76"/>
       <c r="B56" s="76"/>
     </row>
-    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A57" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="78" t="s">
+    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A58" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="79"/>
+      <c r="B58" s="85"/>
       <c r="C58" s="49" t="s">
         <v>1</v>
       </c>
@@ -6240,7 +6241,7 @@
       </c>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A59" s="55" t="s">
         <v>433</v>
       </c>
@@ -6266,7 +6267,7 @@
       </c>
       <c r="J59" s="32"/>
     </row>
-    <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A60" s="57" t="s">
         <v>337</v>
       </c>
@@ -6292,15 +6293,15 @@
       </c>
       <c r="J60" s="32"/>
     </row>
-    <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A61" s="59" t="s">
         <v>229</v>
       </c>
       <c r="B61" s="58"/>
-      <c r="C61" s="87" t="s">
+      <c r="C61" s="89" t="s">
         <v>230</v>
       </c>
-      <c r="D61" s="81"/>
+      <c r="D61" s="79"/>
       <c r="E61" s="6" t="s">
         <v>413</v>
       </c>
@@ -6318,15 +6319,15 @@
       </c>
       <c r="J61" s="32"/>
     </row>
-    <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A62" s="60" t="s">
         <v>233</v>
       </c>
       <c r="B62" s="61"/>
-      <c r="C62" s="87" t="s">
+      <c r="C62" s="89" t="s">
         <v>234</v>
       </c>
-      <c r="D62" s="81"/>
+      <c r="D62" s="79"/>
       <c r="E62" s="6" t="s">
         <v>414</v>
       </c>
@@ -6344,15 +6345,15 @@
       </c>
       <c r="J62" s="32"/>
     </row>
-    <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A63" s="62" t="s">
         <v>236</v>
       </c>
       <c r="B63" s="63"/>
-      <c r="C63" s="87" t="s">
+      <c r="C63" s="89" t="s">
         <v>237</v>
       </c>
-      <c r="D63" s="81"/>
+      <c r="D63" s="79"/>
       <c r="E63" s="6" t="s">
         <v>238</v>
       </c>
@@ -6370,15 +6371,15 @@
       </c>
       <c r="J63" s="32"/>
     </row>
-    <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A64" s="60" t="s">
         <v>241</v>
       </c>
       <c r="B64" s="61"/>
-      <c r="C64" s="87" t="s">
+      <c r="C64" s="89" t="s">
         <v>403</v>
       </c>
-      <c r="D64" s="81"/>
+      <c r="D64" s="79"/>
       <c r="E64" s="6" t="s">
         <v>242</v>
       </c>
@@ -6396,15 +6397,15 @@
       </c>
       <c r="J64" s="32"/>
     </row>
-    <row r="65" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A65" s="64" t="s">
         <v>246</v>
       </c>
       <c r="B65" s="65"/>
-      <c r="C65" s="87" t="s">
+      <c r="C65" s="89" t="s">
         <v>404</v>
       </c>
-      <c r="D65" s="81"/>
+      <c r="D65" s="79"/>
       <c r="E65" s="37" t="s">
         <v>415</v>
       </c>
@@ -6422,15 +6423,15 @@
       </c>
       <c r="J65" s="32"/>
     </row>
-    <row r="66" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A66" s="59" t="s">
         <v>250</v>
       </c>
       <c r="B66" s="58"/>
-      <c r="C66" s="87" t="s">
+      <c r="C66" s="89" t="s">
         <v>399</v>
       </c>
-      <c r="D66" s="81"/>
+      <c r="D66" s="79"/>
       <c r="E66" s="6" t="s">
         <v>412</v>
       </c>
@@ -6448,15 +6449,15 @@
       </c>
       <c r="J66" s="32"/>
     </row>
-    <row r="67" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A67" s="59" t="s">
         <v>253</v>
       </c>
       <c r="B67" s="58"/>
-      <c r="C67" s="87" t="s">
+      <c r="C67" s="89" t="s">
         <v>254</v>
       </c>
-      <c r="D67" s="81"/>
+      <c r="D67" s="79"/>
       <c r="E67" s="6" t="s">
         <v>255</v>
       </c>
@@ -6474,7 +6475,7 @@
       </c>
       <c r="J67" s="32"/>
     </row>
-    <row r="68" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A68" s="60" t="s">
         <v>259</v>
       </c>
@@ -6500,11 +6501,11 @@
       </c>
       <c r="J68" s="32"/>
     </row>
-    <row r="69" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="83" t="s">
+    <row r="69" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A69" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="B69" s="84"/>
+      <c r="B69" s="88"/>
       <c r="C69" s="68" t="s">
         <v>401</v>
       </c>
@@ -6526,7 +6527,7 @@
       </c>
       <c r="J69" s="32"/>
     </row>
-    <row r="70" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A70" s="59" t="s">
         <v>264</v>
       </c>
@@ -6552,15 +6553,15 @@
       </c>
       <c r="J70" s="32"/>
     </row>
-    <row r="71" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A71" s="59" t="s">
         <v>268</v>
       </c>
       <c r="B71" s="58"/>
-      <c r="C71" s="88" t="s">
+      <c r="C71" s="90" t="s">
         <v>402</v>
       </c>
-      <c r="D71" s="89"/>
+      <c r="D71" s="91"/>
       <c r="E71" s="6" t="s">
         <v>408</v>
       </c>
@@ -6578,15 +6579,15 @@
       </c>
       <c r="J71" s="32"/>
     </row>
-    <row r="72" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A72" s="60" t="s">
         <v>272</v>
       </c>
       <c r="B72" s="61"/>
-      <c r="C72" s="87" t="s">
+      <c r="C72" s="89" t="s">
         <v>405</v>
       </c>
-      <c r="D72" s="81"/>
+      <c r="D72" s="79"/>
       <c r="E72" s="6" t="s">
         <v>409</v>
       </c>
@@ -6604,7 +6605,7 @@
       </c>
       <c r="J72" s="32"/>
     </row>
-    <row r="73" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A73" s="66" t="s">
         <v>273</v>
       </c>
@@ -6630,7 +6631,7 @@
       </c>
       <c r="J73" s="32"/>
     </row>
-    <row r="74" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A74" s="74"/>
       <c r="B74" s="74"/>
       <c r="C74" s="69"/>
@@ -6642,24 +6643,24 @@
       <c r="I74" s="69"/>
       <c r="J74" s="32"/>
     </row>
-    <row r="75" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="76" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A76" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="82" t="s">
+    <row r="77" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A77" s="86" t="s">
         <v>276</v>
       </c>
-      <c r="B77" s="81"/>
+      <c r="B77" s="79"/>
       <c r="C77" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D77" s="86" t="s">
+      <c r="D77" s="83" t="s">
         <v>278</v>
       </c>
-      <c r="E77" s="81"/>
+      <c r="E77" s="79"/>
       <c r="F77" s="8" t="s">
         <v>5</v>
       </c>
@@ -6672,18 +6673,18 @@
       <c r="K77" s="11"/>
       <c r="L77" s="9"/>
     </row>
-    <row r="78" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="80" t="s">
+    <row r="78" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A78" s="78" t="s">
         <v>279</v>
       </c>
-      <c r="B78" s="81"/>
+      <c r="B78" s="79"/>
       <c r="C78" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="D78" s="85" t="s">
+      <c r="D78" s="80" t="s">
         <v>340</v>
       </c>
-      <c r="E78" s="81"/>
+      <c r="E78" s="79"/>
       <c r="F78" s="6" t="s">
         <v>38</v>
       </c>
@@ -6696,18 +6697,18 @@
       <c r="K78" s="33"/>
       <c r="L78" s="34"/>
     </row>
-    <row r="79" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="80" t="s">
+    <row r="79" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A79" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="B79" s="81"/>
+      <c r="B79" s="79"/>
       <c r="C79" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D79" s="85" t="s">
+      <c r="D79" s="80" t="s">
         <v>341</v>
       </c>
-      <c r="E79" s="81"/>
+      <c r="E79" s="79"/>
       <c r="F79" s="6" t="s">
         <v>38</v>
       </c>
@@ -6720,18 +6721,18 @@
       <c r="K79" s="33"/>
       <c r="L79" s="34"/>
     </row>
-    <row r="80" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="80" t="s">
+    <row r="80" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A80" s="78" t="s">
         <v>282</v>
       </c>
-      <c r="B80" s="81"/>
+      <c r="B80" s="79"/>
       <c r="C80" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="D80" s="85" t="s">
+      <c r="D80" s="80" t="s">
         <v>343</v>
       </c>
-      <c r="E80" s="81"/>
+      <c r="E80" s="79"/>
       <c r="F80" s="6" t="s">
         <v>38</v>
       </c>
@@ -6744,18 +6745,18 @@
       <c r="K80" s="33"/>
       <c r="L80" s="34"/>
     </row>
-    <row r="81" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="80" t="s">
+    <row r="81" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A81" s="78" t="s">
         <v>283</v>
       </c>
-      <c r="B81" s="81"/>
+      <c r="B81" s="79"/>
       <c r="C81" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="D81" s="85" t="s">
+      <c r="D81" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="E81" s="81"/>
+      <c r="E81" s="79"/>
       <c r="F81" s="6" t="s">
         <v>434</v>
       </c>
@@ -6768,18 +6769,18 @@
       <c r="K81" s="33"/>
       <c r="L81" s="34"/>
     </row>
-    <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="80" t="s">
+    <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A82" s="78" t="s">
         <v>284</v>
       </c>
-      <c r="B82" s="81"/>
+      <c r="B82" s="79"/>
       <c r="C82" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D82" s="85" t="s">
+      <c r="D82" s="80" t="s">
         <v>347</v>
       </c>
-      <c r="E82" s="81"/>
+      <c r="E82" s="79"/>
       <c r="F82" s="6" t="s">
         <v>38</v>
       </c>
@@ -6792,18 +6793,18 @@
       <c r="K82" s="33"/>
       <c r="L82" s="34"/>
     </row>
-    <row r="83" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="80" t="s">
+    <row r="83" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A83" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="B83" s="81"/>
+      <c r="B83" s="79"/>
       <c r="C83" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="D83" s="85" t="s">
+      <c r="D83" s="80" t="s">
         <v>349</v>
       </c>
-      <c r="E83" s="81"/>
+      <c r="E83" s="79"/>
       <c r="F83" s="6" t="s">
         <v>38</v>
       </c>
@@ -6816,18 +6817,18 @@
       <c r="K83" s="33"/>
       <c r="L83" s="34"/>
     </row>
-    <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="80" t="s">
+    <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A84" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="B84" s="81"/>
+      <c r="B84" s="79"/>
       <c r="C84" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D84" s="85" t="s">
+      <c r="D84" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="E84" s="81"/>
+      <c r="E84" s="79"/>
       <c r="F84" s="6" t="s">
         <v>38</v>
       </c>
@@ -6840,18 +6841,18 @@
       <c r="K84" s="33"/>
       <c r="L84" s="34"/>
     </row>
-    <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="80" t="s">
+    <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A85" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="B85" s="81"/>
+      <c r="B85" s="79"/>
       <c r="C85" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D85" s="85" t="s">
+      <c r="D85" s="80" t="s">
         <v>354</v>
       </c>
-      <c r="E85" s="81"/>
+      <c r="E85" s="79"/>
       <c r="F85" s="6" t="s">
         <v>38</v>
       </c>
@@ -6864,18 +6865,18 @@
       <c r="K85" s="33"/>
       <c r="L85" s="34"/>
     </row>
-    <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="80" t="s">
+    <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A86" s="78" t="s">
         <v>291</v>
       </c>
-      <c r="B86" s="81"/>
+      <c r="B86" s="79"/>
       <c r="C86" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D86" s="85" t="s">
+      <c r="D86" s="80" t="s">
         <v>356</v>
       </c>
-      <c r="E86" s="81"/>
+      <c r="E86" s="79"/>
       <c r="F86" s="6" t="s">
         <v>13</v>
       </c>
@@ -6888,18 +6889,18 @@
       <c r="K86" s="11"/>
       <c r="L86" s="14"/>
     </row>
-    <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="80" t="s">
+    <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A87" s="78" t="s">
         <v>293</v>
       </c>
-      <c r="B87" s="81"/>
+      <c r="B87" s="79"/>
       <c r="C87" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D87" s="85" t="s">
+      <c r="D87" s="80" t="s">
         <v>358</v>
       </c>
-      <c r="E87" s="81"/>
+      <c r="E87" s="79"/>
       <c r="F87" s="6" t="s">
         <v>38</v>
       </c>
@@ -6912,18 +6913,18 @@
       <c r="K87" s="11"/>
       <c r="L87" s="14"/>
     </row>
-    <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="80" t="s">
+    <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A88" s="78" t="s">
         <v>295</v>
       </c>
-      <c r="B88" s="81"/>
+      <c r="B88" s="79"/>
       <c r="C88" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="D88" s="85" t="s">
+      <c r="D88" s="80" t="s">
         <v>360</v>
       </c>
-      <c r="E88" s="81"/>
+      <c r="E88" s="79"/>
       <c r="F88" s="6" t="s">
         <v>38</v>
       </c>
@@ -6936,18 +6937,18 @@
       <c r="K88" s="33"/>
       <c r="L88" s="34"/>
     </row>
-    <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="80" t="s">
+    <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A89" s="78" t="s">
         <v>297</v>
       </c>
-      <c r="B89" s="81"/>
+      <c r="B89" s="79"/>
       <c r="C89" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="D89" s="85" t="s">
+      <c r="D89" s="80" t="s">
         <v>362</v>
       </c>
-      <c r="E89" s="81"/>
+      <c r="E89" s="79"/>
       <c r="F89" s="6" t="s">
         <v>38</v>
       </c>
@@ -6960,18 +6961,18 @@
       <c r="K89" s="11"/>
       <c r="L89" s="14"/>
     </row>
-    <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="80" t="s">
+    <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A90" s="78" t="s">
         <v>299</v>
       </c>
-      <c r="B90" s="81"/>
+      <c r="B90" s="79"/>
       <c r="C90" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="D90" s="85" t="s">
+      <c r="D90" s="80" t="s">
         <v>364</v>
       </c>
-      <c r="E90" s="81"/>
+      <c r="E90" s="79"/>
       <c r="F90" s="6" t="s">
         <v>38</v>
       </c>
@@ -6984,18 +6985,18 @@
       <c r="K90" s="11"/>
       <c r="L90" s="14"/>
     </row>
-    <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="80" t="s">
+    <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A91" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="B91" s="81"/>
+      <c r="B91" s="79"/>
       <c r="C91" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D91" s="85" t="s">
+      <c r="D91" s="80" t="s">
         <v>366</v>
       </c>
-      <c r="E91" s="81"/>
+      <c r="E91" s="79"/>
       <c r="F91" s="6" t="s">
         <v>38</v>
       </c>
@@ -7008,18 +7009,18 @@
       <c r="K91" s="11"/>
       <c r="L91" s="14"/>
     </row>
-    <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="80" t="s">
+    <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A92" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="B92" s="81"/>
+      <c r="B92" s="79"/>
       <c r="C92" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="D92" s="85" t="s">
+      <c r="D92" s="80" t="s">
         <v>369</v>
       </c>
-      <c r="E92" s="81"/>
+      <c r="E92" s="79"/>
       <c r="F92" s="6" t="s">
         <v>38</v>
       </c>
@@ -7032,18 +7033,18 @@
       <c r="K92" s="11"/>
       <c r="L92" s="14"/>
     </row>
-    <row r="93" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="80" t="s">
+    <row r="93" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A93" s="78" t="s">
         <v>305</v>
       </c>
-      <c r="B93" s="81"/>
+      <c r="B93" s="79"/>
       <c r="C93" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D93" s="85" t="s">
+      <c r="D93" s="80" t="s">
         <v>371</v>
       </c>
-      <c r="E93" s="81"/>
+      <c r="E93" s="79"/>
       <c r="F93" s="6" t="s">
         <v>38</v>
       </c>
@@ -7056,18 +7057,18 @@
       <c r="K93" s="11"/>
       <c r="L93" s="14"/>
     </row>
-    <row r="94" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="80" t="s">
+    <row r="94" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A94" s="78" t="s">
         <v>306</v>
       </c>
-      <c r="B94" s="81"/>
+      <c r="B94" s="79"/>
       <c r="C94" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="D94" s="85" t="s">
+      <c r="D94" s="80" t="s">
         <v>373</v>
       </c>
-      <c r="E94" s="81"/>
+      <c r="E94" s="79"/>
       <c r="F94" s="6" t="s">
         <v>38</v>
       </c>
@@ -7080,18 +7081,18 @@
       <c r="K94" s="11"/>
       <c r="L94" s="14"/>
     </row>
-    <row r="95" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="80" t="s">
+    <row r="95" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A95" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="B95" s="81"/>
+      <c r="B95" s="79"/>
       <c r="C95" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="D95" s="85" t="s">
+      <c r="D95" s="80" t="s">
         <v>375</v>
       </c>
-      <c r="E95" s="81"/>
+      <c r="E95" s="79"/>
       <c r="F95" s="6" t="s">
         <v>38</v>
       </c>
@@ -7104,18 +7105,18 @@
       <c r="K95" s="11"/>
       <c r="L95" s="14"/>
     </row>
-    <row r="96" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="80" t="s">
+    <row r="96" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A96" s="78" t="s">
         <v>310</v>
       </c>
-      <c r="B96" s="81"/>
+      <c r="B96" s="79"/>
       <c r="C96" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D96" s="85" t="s">
+      <c r="D96" s="80" t="s">
         <v>376</v>
       </c>
-      <c r="E96" s="81"/>
+      <c r="E96" s="79"/>
       <c r="F96" s="6" t="s">
         <v>38</v>
       </c>
@@ -7128,18 +7129,18 @@
       <c r="K96" s="11"/>
       <c r="L96" s="14"/>
     </row>
-    <row r="97" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="80" t="s">
+    <row r="97" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A97" s="78" t="s">
         <v>312</v>
       </c>
-      <c r="B97" s="81"/>
+      <c r="B97" s="79"/>
       <c r="C97" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="D97" s="85" t="s">
+      <c r="D97" s="80" t="s">
         <v>377</v>
       </c>
-      <c r="E97" s="81"/>
+      <c r="E97" s="79"/>
       <c r="F97" s="45" t="s">
         <v>386</v>
       </c>
@@ -7152,18 +7153,18 @@
       <c r="K97" s="33"/>
       <c r="L97" s="34"/>
     </row>
-    <row r="98" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="80" t="s">
+    <row r="98" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A98" s="78" t="s">
         <v>313</v>
       </c>
-      <c r="B98" s="81"/>
+      <c r="B98" s="79"/>
       <c r="C98" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="D98" s="85" t="s">
+      <c r="D98" s="80" t="s">
         <v>378</v>
       </c>
-      <c r="E98" s="81"/>
+      <c r="E98" s="79"/>
       <c r="F98" s="45" t="s">
         <v>387</v>
       </c>
@@ -7176,18 +7177,18 @@
       <c r="K98" s="11"/>
       <c r="L98" s="14"/>
     </row>
-    <row r="99" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="80" t="s">
+    <row r="99" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A99" s="78" t="s">
         <v>315</v>
       </c>
-      <c r="B99" s="81"/>
+      <c r="B99" s="79"/>
       <c r="C99" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D99" s="85" t="s">
+      <c r="D99" s="80" t="s">
         <v>379</v>
       </c>
-      <c r="E99" s="81"/>
+      <c r="E99" s="79"/>
       <c r="F99" s="6" t="s">
         <v>38</v>
       </c>
@@ -7200,18 +7201,18 @@
       <c r="K99" s="32"/>
       <c r="L99" s="35"/>
     </row>
-    <row r="100" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="80" t="s">
+    <row r="100" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A100" s="78" t="s">
         <v>316</v>
       </c>
-      <c r="B100" s="81"/>
+      <c r="B100" s="79"/>
       <c r="C100" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="D100" s="85" t="s">
+      <c r="D100" s="80" t="s">
         <v>380</v>
       </c>
-      <c r="E100" s="81"/>
+      <c r="E100" s="79"/>
       <c r="F100" s="6" t="s">
         <v>38</v>
       </c>
@@ -7224,18 +7225,18 @@
       <c r="K100" s="11"/>
       <c r="L100" s="14"/>
     </row>
-    <row r="101" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="80" t="s">
+    <row r="101" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A101" s="78" t="s">
         <v>317</v>
       </c>
-      <c r="B101" s="81"/>
+      <c r="B101" s="79"/>
       <c r="C101" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="D101" s="85" t="s">
+      <c r="D101" s="80" t="s">
         <v>381</v>
       </c>
-      <c r="E101" s="81"/>
+      <c r="E101" s="79"/>
       <c r="F101" s="6" t="s">
         <v>38</v>
       </c>
@@ -7248,18 +7249,18 @@
       <c r="K101" s="11"/>
       <c r="L101" s="14"/>
     </row>
-    <row r="102" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="80" t="s">
+    <row r="102" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A102" s="78" t="s">
         <v>318</v>
       </c>
-      <c r="B102" s="81"/>
+      <c r="B102" s="79"/>
       <c r="C102" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="D102" s="85" t="s">
+      <c r="D102" s="80" t="s">
         <v>382</v>
       </c>
-      <c r="E102" s="81"/>
+      <c r="E102" s="79"/>
       <c r="F102" s="6" t="s">
         <v>38</v>
       </c>
@@ -7272,18 +7273,18 @@
       <c r="K102" s="32"/>
       <c r="L102" s="35"/>
     </row>
-    <row r="103" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="80" t="s">
+    <row r="103" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A103" s="78" t="s">
         <v>319</v>
       </c>
-      <c r="B103" s="81"/>
+      <c r="B103" s="79"/>
       <c r="C103" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="D103" s="85" t="s">
+      <c r="D103" s="80" t="s">
         <v>383</v>
       </c>
-      <c r="E103" s="81"/>
+      <c r="E103" s="79"/>
       <c r="F103" s="6" t="s">
         <v>38</v>
       </c>
@@ -7296,18 +7297,18 @@
       <c r="K103" s="11"/>
       <c r="L103" s="14"/>
     </row>
-    <row r="104" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="80" t="s">
+    <row r="104" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A104" s="78" t="s">
         <v>321</v>
       </c>
-      <c r="B104" s="81"/>
+      <c r="B104" s="79"/>
       <c r="C104" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D104" s="85" t="s">
+      <c r="D104" s="80" t="s">
         <v>384</v>
       </c>
-      <c r="E104" s="81"/>
+      <c r="E104" s="79"/>
       <c r="F104" s="6" t="s">
         <v>38</v>
       </c>
@@ -7320,11 +7321,11 @@
       <c r="K104" s="32"/>
       <c r="L104" s="35"/>
     </row>
-    <row r="105" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="80" t="s">
+    <row r="105" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A105" s="78" t="s">
         <v>323</v>
       </c>
-      <c r="B105" s="81"/>
+      <c r="B105" s="79"/>
       <c r="C105" s="6" t="s">
         <v>324</v>
       </c>
@@ -7344,111 +7345,53 @@
       <c r="K105" s="22"/>
       <c r="L105" s="14"/>
     </row>
-    <row r="106" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A106" s="36"/>
     </row>
-    <row r="107" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A107" s="36"/>
     </row>
-    <row r="108" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A108" s="36"/>
     </row>
-    <row r="109" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A109" s="36"/>
     </row>
-    <row r="110" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A110" s="36"/>
     </row>
-    <row r="111" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A111" s="36"/>
     </row>
-    <row r="112" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A112" s="36"/>
     </row>
-    <row r="113" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A113" s="36"/>
     </row>
-    <row r="114" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A114" s="36"/>
     </row>
-    <row r="115" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A115" s="36"/>
     </row>
-    <row r="116" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A116" s="36"/>
     </row>
-    <row r="117" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A117" s="36"/>
     </row>
-    <row r="118" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A118" s="36"/>
     </row>
-    <row r="119" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A119" s="36"/>
     </row>
-    <row r="120" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A120" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="A88:B88"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A77:B77"/>
@@ -7464,6 +7407,64 @@
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="C66:D66"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="D104:E104"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
